--- a/Topics/REMBI-Mapping/REMBI-template_CAi_VF_AS.xlsx
+++ b/Topics/REMBI-Mapping/REMBI-template_CAi_VF_AS.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrea/CEPLAS/ConferencesETC/2023-11_Cologne-Hackathon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrea/repos/CEPLAS/NFDI4Bioimage/Cologne-Hackathon-2023/Topics/REMBI-Mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09136BDA-2C06-FA46-85B6-39B4864FA46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE431B15-1630-CE41-9B15-E1353D71B432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{14919E20-F334-460A-AB37-8DA7FAC6926F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{14919E20-F334-460A-AB37-8DA7FAC6926F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Annotation template" sheetId="2" r:id="rId1"/>
-    <sheet name="K-v-pair layout" sheetId="3" r:id="rId2"/>
+    <sheet name="README" sheetId="5" r:id="rId1"/>
+    <sheet name="Annotation template" sheetId="2" r:id="rId2"/>
+    <sheet name="K-v-pair layout" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
   <si>
     <r>
       <t xml:space="preserve">Annotation on the </t>
@@ -328,12 +329,151 @@
   <si>
     <t>Arabidopsis thaliana</t>
   </si>
+  <si>
+    <r>
+      <t>REMBI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF171717"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF171717"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>RE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF171717"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>commended </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF171717"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF171717"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>etadata for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF171717"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF171717"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>iological </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF171717"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF171717"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>mages 
+The REMBI publication can be read here: https://rdcu.be/dsDc6.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>At the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>NFDI4Bioimage - TA3-Hackathon - UoC-2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">", we used this REMBI-template which is used at CAi at HHU Duesseldorf.                                                           </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>CAi REMBI-template</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is adapted from the REMBI table in the supplementary information of the REMBI publication: https://doi.org/10.1038/s41592-021-01166-8.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,8 +524,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF171717"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF171717"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +594,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -453,7 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -507,14 +679,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -830,10 +1005,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984D317E-20D4-894E-969A-C7A6A7AE7B9E}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="90.1640625" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" customHeight="1">
+      <c r="A1" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="19"/>
+    </row>
+    <row r="3" spans="1:1" ht="18" customHeight="1">
+      <c r="A3" s="19"/>
+    </row>
+    <row r="4" spans="1:1" ht="56" customHeight="1">
+      <c r="A4" s="19"/>
+    </row>
+    <row r="6" spans="1:1" ht="15" customHeight="1">
+      <c r="A6" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="79" customHeight="1">
+      <c r="A7" s="20"/>
+    </row>
+    <row r="9" spans="1:1" ht="57">
+      <c r="A9" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B2F105-D05F-45B4-BF44-A816934754C1}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -1055,12 +1279,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="19" customFormat="1">
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-    </row>
-    <row r="25" spans="1:4" s="19" customFormat="1" ht="32">
-      <c r="C25" s="20"/>
+    <row r="24" spans="1:4" s="3" customFormat="1">
+      <c r="C24" s="6"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" s="3" customFormat="1" ht="32">
+      <c r="C25" s="6"/>
       <c r="D25" s="5" t="s">
         <v>73</v>
       </c>
@@ -1220,7 +1444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61805115-92CE-47FB-B1DA-F4E52C31E31A}">
   <dimension ref="A2:A34"/>
   <sheetViews>
